--- a/biology/Médecine/Benthami_Belkacem/Benthami_Belkacem.xlsx
+++ b/biology/Médecine/Benthami_Belkacem/Benthami_Belkacem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belkacem Bentami (Ben Tami) Ould Hamida, né le 20 septembre 1873 à Mostaganem et mort le 2 juin 1937 à Alger, est un médecin et homme politique algérien, naturalisé français, figure majeure du mouvement des Jeunes-Algériens.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Belkacem Bentami (Ould H'mida) est né le 20 septembre 1873 à Mostaganem. Il est le petit-fils du lieutenant de l'émir Abdelkader Sid El Hadj Mustafa Bentami qui s'est illustré lors du siège de Mazagran en 1840. 
-Il obtient son doctorat de médecine en 1897 à Alger puis se spécialise en ophtalmologie à Montpellier en 1905[1]. Il est nommé chef de clinique à l’hôpital Mustapha en 1907[2]. Son frère Djilali est aussi médecin, spécialiste en neurologie.
-Il épouse Rosalia, une écrivaine et artiste juive d'origine russe[3].
-Belkacem Bentami (Ould H'mid) acquiert la nationalité française par décret de naturalisation en 1905 [4]. 
+Il obtient son doctorat de médecine en 1897 à Alger puis se spécialise en ophtalmologie à Montpellier en 1905. Il est nommé chef de clinique à l’hôpital Mustapha en 1907. Son frère Djilali est aussi médecin, spécialiste en neurologie.
+Il épouse Rosalia, une écrivaine et artiste juive d'origine russe.
+Belkacem Bentami (Ould H'mid) acquiert la nationalité française par décret de naturalisation en 1905 . 
 Il est médecin-commandant pendant la Première Guerre mondiale.
 Il commence la politique dans le mouvement des Jeunes-Algériens dont il devient l'une des têtes de file.
 </t>
